--- a/input_data/covid/corres_WIOD_2016_2013.xlsx
+++ b/input_data/covid/corres_WIOD_2016_2013.xlsx
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1586810534" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1586810534" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1586810534" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1586810534"/>
+      <pm:revision xmlns:pm="smNativeData" day="1587580709" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1587580709" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1587580709" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1587580709"/>
     </ext>
   </extLst>
 </workbook>
@@ -689,6 +689,9 @@
     <t>indname</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>AUS</t>
   </si>
   <si>
@@ -702,9 +705,6 @@
   </si>
   <si>
     <t>textile</t>
-  </si>
-  <si>
-    <t>(note textile include leather)</t>
   </si>
   <si>
     <t>wood</t>
@@ -823,7 +823,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1586810534" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1587580709" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -838,7 +838,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1586810534" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1587580709" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -853,7 +853,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1586810534" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1587580709" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -875,7 +875,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1586810534" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1587580709" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -886,7 +886,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1586810534" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1587580709" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -897,7 +897,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1586810534" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1587580709" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -919,7 +919,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1586810534"/>
+          <pm:border xmlns:pm="smNativeData" id="1587580709"/>
         </ext>
       </extLst>
     </border>
@@ -938,7 +938,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1586810534"/>
+          <pm:border xmlns:pm="smNativeData" id="1587580709"/>
         </ext>
       </extLst>
     </border>
@@ -957,7 +957,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1586810534"/>
+          <pm:border xmlns:pm="smNativeData" id="1587580709"/>
         </ext>
       </extLst>
     </border>
@@ -976,7 +976,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1586810534"/>
+          <pm:border xmlns:pm="smNativeData" id="1587580709"/>
         </ext>
       </extLst>
     </border>
@@ -1014,10 +1014,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1586810534" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1587580709" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1586810534" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1587580709" count="2">
         <pm:color name="Color 24" rgb="F4AF82"/>
         <pm:color name="Color 25" rgb="C7C7C7"/>
       </pm:colors>
@@ -2957,7 +2957,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1586810534" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1587580709" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2966,16 +2966,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1586810534" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1586810534" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1586810534" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1586810534" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1587580709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1587580709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1587580709" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1587580709" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1586810534" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1587580709" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2986,25 +2986,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I36"/>
+  <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.535714" defaultRowHeight="15.40"/>
   <cols>
     <col min="1" max="1" width="89.000000" customWidth="1" style="0"/>
     <col min="2" max="6" width="11.428571" customWidth="1" style="0"/>
-    <col min="8" max="16384" width="11.428571" customWidth="1" style="0"/>
+    <col min="7" max="7" width="12.035714" customWidth="1"/>
+    <col min="8" max="8" width="15.500000" customWidth="1" style="0"/>
+    <col min="9" max="16384" width="11.428571" customWidth="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
+    <row r="1" spans="6:8">
       <c r="F1" t="s">
         <v>219</v>
       </c>
       <c r="G1" t="s">
         <v>220</v>
+      </c>
+      <c r="H1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -3015,7 +3020,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -3024,9 +3029,11 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9">
@@ -3037,7 +3044,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -3046,9 +3053,11 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:9">
@@ -3059,7 +3068,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -3068,9 +3077,11 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:8">
@@ -3081,7 +3092,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>28</v>
@@ -3090,13 +3101,13 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="3" t="n">
         <v>20</v>
       </c>
@@ -3104,7 +3115,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>32</v>
@@ -3115,7 +3126,9 @@
       <c r="G6" t="s">
         <v>227</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9">
@@ -3126,7 +3139,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>37</v>
@@ -3137,7 +3150,9 @@
       <c r="G7" t="s">
         <v>228</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:9">
@@ -3148,7 +3163,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>43</v>
@@ -3159,7 +3174,9 @@
       <c r="G8" t="s">
         <v>229</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9">
@@ -3170,7 +3187,7 @@
         <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>47</v>
@@ -3181,7 +3198,9 @@
       <c r="G9" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="2:9">
@@ -3192,7 +3211,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>53</v>
@@ -3203,7 +3222,9 @@
       <c r="G10" t="s">
         <v>231</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="2:9">
@@ -3214,7 +3235,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>57</v>
@@ -3225,7 +3246,9 @@
       <c r="G11" t="s">
         <v>232</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:9">
@@ -3236,7 +3259,7 @@
         <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -3247,7 +3270,9 @@
       <c r="G12" t="s">
         <v>233</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:9">
@@ -3258,7 +3283,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>75</v>
@@ -3269,7 +3294,9 @@
       <c r="G13" t="s">
         <v>234</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9">
@@ -3280,7 +3307,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>69</v>
@@ -3291,7 +3318,9 @@
       <c r="G14" t="s">
         <v>235</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9">
@@ -3302,7 +3331,7 @@
         <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>80</v>
@@ -3313,7 +3342,9 @@
       <c r="G15" t="s">
         <v>236</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9">
@@ -3324,7 +3355,7 @@
         <v>86</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>87</v>
@@ -3335,7 +3366,9 @@
       <c r="G16" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9">
@@ -3346,7 +3379,7 @@
         <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>94</v>
@@ -3357,7 +3390,9 @@
       <c r="G17" t="s">
         <v>238</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9">
@@ -3368,7 +3403,7 @@
         <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>103</v>
@@ -3379,7 +3414,9 @@
       <c r="G18" t="s">
         <v>239</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="2:9">
@@ -3390,7 +3427,7 @@
         <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>105</v>
@@ -3401,7 +3438,9 @@
       <c r="G19" t="s">
         <v>240</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="2:9">
@@ -3412,7 +3451,7 @@
         <v>108</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>109</v>
@@ -3423,7 +3462,9 @@
       <c r="G20" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9">
@@ -3434,7 +3475,7 @@
         <v>112</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>113</v>
@@ -3445,7 +3486,9 @@
       <c r="G21" t="s">
         <v>242</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:9">
@@ -3456,7 +3499,7 @@
         <v>137</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>138</v>
@@ -3467,7 +3510,9 @@
       <c r="G22" t="s">
         <v>243</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:9">
@@ -3478,7 +3523,7 @@
         <v>116</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>117</v>
@@ -3489,7 +3534,9 @@
       <c r="G23" t="s">
         <v>244</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:9">
@@ -3500,7 +3547,7 @@
         <v>120</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>121</v>
@@ -3511,7 +3558,9 @@
       <c r="G24" t="s">
         <v>245</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:9">
@@ -3522,7 +3571,7 @@
         <v>124</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>125</v>
@@ -3533,7 +3582,9 @@
       <c r="G25" t="s">
         <v>246</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:9">
@@ -3544,7 +3595,7 @@
         <v>128</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>129</v>
@@ -3555,7 +3606,9 @@
       <c r="G26" t="s">
         <v>247</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9">
@@ -3566,7 +3619,7 @@
         <v>132</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>133</v>
@@ -3577,7 +3630,9 @@
       <c r="G27" t="s">
         <v>248</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:9">
@@ -3588,7 +3643,7 @@
         <v>153</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>154</v>
@@ -3599,7 +3654,9 @@
       <c r="G28" t="s">
         <v>249</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:9">
@@ -3610,7 +3667,7 @@
         <v>161</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>162</v>
@@ -3621,7 +3678,9 @@
       <c r="G29" t="s">
         <v>250</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:9">
@@ -3632,7 +3691,7 @@
         <v>148</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>149</v>
@@ -3643,7 +3702,9 @@
       <c r="G30" t="s">
         <v>251</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:9">
@@ -3654,7 +3715,7 @@
         <v>178</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>179</v>
@@ -3665,7 +3726,9 @@
       <c r="G31" t="s">
         <v>252</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:9">
@@ -3676,7 +3739,7 @@
         <v>183</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>184</v>
@@ -3687,7 +3750,9 @@
       <c r="G32" t="s">
         <v>253</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="2:9">
@@ -3698,7 +3763,7 @@
         <v>186</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>187</v>
@@ -3709,7 +3774,9 @@
       <c r="G33" t="s">
         <v>254</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="2:9">
@@ -3720,7 +3787,7 @@
         <v>191</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>192</v>
@@ -3731,7 +3798,9 @@
       <c r="G34" t="s">
         <v>255</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:9">
@@ -3742,7 +3811,7 @@
         <v>196</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>197</v>
@@ -3753,22 +3822,27 @@
       <c r="G35" t="s">
         <v>256</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:8">
       <c r="F36" t="n">
         <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>257</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1586810534" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1587580709" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3777,16 +3851,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1586810534" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1586810534" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1586810534" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1586810534" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1587580709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1587580709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1587580709" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1587580709" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1586810534" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1587580709" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
